--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0EFD97-02F6-47EC-88F8-E31E5C43857E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83F704D-8637-426C-A0DE-D0F89216A96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Price</t>
   </si>
@@ -54,9 +46,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q418</t>
-  </si>
-  <si>
     <t>Q119</t>
   </si>
   <si>
@@ -99,17 +88,86 @@
     <t>Q222</t>
   </si>
   <si>
-    <t>Q322</t>
-  </si>
-  <si>
-    <t>Q422</t>
+    <t>Google Search</t>
+  </si>
+  <si>
+    <t>Youtube Ads</t>
+  </si>
+  <si>
+    <t>Google Services</t>
+  </si>
+  <si>
+    <t>Google Cloud</t>
+  </si>
+  <si>
+    <t>Other Bets</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>PreTax</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory </t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L+SE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +176,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -141,16 +221,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,12 +520,12 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="14:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +533,7 @@
         <v>116.63</v>
       </c>
     </row>
-    <row r="3" spans="14:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N3" s="1" t="s">
         <v>1</v>
       </c>
@@ -456,7 +541,7 @@
         <v>5996</v>
       </c>
     </row>
-    <row r="4" spans="14:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N4" s="1" t="s">
         <v>2</v>
       </c>
@@ -465,7 +550,7 @@
         <v>699313.48</v>
       </c>
     </row>
-    <row r="5" spans="14:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N5" s="1" t="s">
         <v>3</v>
       </c>
@@ -474,7 +559,7 @@
         <v>124997</v>
       </c>
     </row>
-    <row r="6" spans="14:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N6" s="1" t="s">
         <v>4</v>
       </c>
@@ -482,7 +567,7 @@
         <v>61354</v>
       </c>
     </row>
-    <row r="7" spans="14:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N7" s="1" t="s">
         <v>5</v>
       </c>
@@ -499,21 +584,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957F1059-E429-4852-97AC-258CE39ACF28}">
-  <dimension ref="C2:S2"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4">
+        <v>44104</v>
+      </c>
+      <c r="K1" s="4">
+        <v>44286</v>
+      </c>
+      <c r="L1" s="4">
+        <v>44377</v>
+      </c>
+      <c r="M1" s="4">
+        <v>44469</v>
+      </c>
+      <c r="N1" s="4">
+        <v>44561</v>
+      </c>
+      <c r="O1" s="4">
+        <v>44651</v>
+      </c>
+      <c r="P1" s="4">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -556,17 +671,614 @@
       <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="I3" s="1">
+        <v>26338</v>
+      </c>
+      <c r="K3" s="1">
+        <v>31879</v>
+      </c>
+      <c r="L3" s="1">
+        <v>35845</v>
+      </c>
+      <c r="M3" s="1">
+        <v>37926</v>
+      </c>
+      <c r="O3" s="1">
+        <v>39618</v>
+      </c>
+      <c r="P3" s="1">
+        <v>40689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="I4" s="1">
+        <v>5037</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6005</v>
+      </c>
+      <c r="L4" s="1">
+        <v>7002</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7205</v>
+      </c>
+      <c r="O4" s="1">
+        <v>6869</v>
+      </c>
+      <c r="P4" s="1">
+        <v>7340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="I5" s="1">
+        <v>42573</v>
+      </c>
+      <c r="K5" s="1">
+        <v>51178</v>
+      </c>
+      <c r="L5" s="1">
+        <v>57067</v>
+      </c>
+      <c r="M5" s="1">
+        <v>59884</v>
+      </c>
+      <c r="O5" s="1">
+        <v>54661</v>
+      </c>
+      <c r="P5" s="1">
+        <v>62841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3444</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4047</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4628</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4990</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5821</v>
+      </c>
+      <c r="P6" s="1">
+        <v>6276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1">
+        <v>178</v>
+      </c>
+      <c r="K7" s="1">
+        <v>198</v>
+      </c>
+      <c r="L7" s="1">
+        <v>192</v>
+      </c>
+      <c r="M7" s="1">
+        <v>182</v>
+      </c>
+      <c r="O7" s="1">
+        <v>440</v>
+      </c>
+      <c r="P7" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="6">
+        <v>46173</v>
+      </c>
+      <c r="K8" s="6">
+        <v>55314</v>
+      </c>
+      <c r="L8" s="6">
+        <v>61880</v>
+      </c>
+      <c r="M8" s="6">
+        <v>65118</v>
+      </c>
+      <c r="O8" s="6">
+        <v>68011</v>
+      </c>
+      <c r="P8" s="6">
+        <v>69685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1">
+        <v>21117</v>
+      </c>
+      <c r="K9" s="1">
+        <v>24103</v>
+      </c>
+      <c r="L9" s="1">
+        <v>26227</v>
+      </c>
+      <c r="M9" s="1">
+        <v>27261</v>
+      </c>
+      <c r="O9" s="1">
+        <v>29599</v>
+      </c>
+      <c r="P9" s="1">
+        <v>30104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6856</v>
+      </c>
+      <c r="K10" s="1">
+        <v>7485</v>
+      </c>
+      <c r="L10" s="1">
+        <v>7675</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7694</v>
+      </c>
+      <c r="O10" s="1">
+        <v>9119</v>
+      </c>
+      <c r="P10" s="1">
+        <v>9841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4231</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4516</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5276</v>
+      </c>
+      <c r="M11" s="1">
+        <v>5516</v>
+      </c>
+      <c r="O11" s="1">
+        <v>5825</v>
+      </c>
+      <c r="P11" s="1">
+        <v>6630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2756</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2773</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3341</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3256</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3374</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="1">
+        <v>13359</v>
+      </c>
+      <c r="K13" s="1">
+        <v>21283</v>
+      </c>
+      <c r="L13" s="1">
+        <v>21985</v>
+      </c>
+      <c r="M13" s="1">
+        <v>23064</v>
+      </c>
+      <c r="O13" s="1">
+        <v>18934</v>
+      </c>
+      <c r="P13" s="1">
+        <v>50232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:O14" si="0">C13-C15</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>2112</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>3353</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>3460</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>4128</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>2498</v>
+      </c>
+      <c r="P14" s="1">
+        <v>18536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="2">
+        <v>11247</v>
+      </c>
+      <c r="K15" s="1">
+        <v>17930</v>
+      </c>
+      <c r="L15" s="1">
+        <v>18525</v>
+      </c>
+      <c r="M15" s="1">
+        <v>18936</v>
+      </c>
+      <c r="O15" s="1">
+        <v>16436</v>
+      </c>
+      <c r="P15" s="1">
+        <v>16002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:P25" si="1">C27-C34</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="1"/>
+        <v>19759</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="1"/>
+        <v>24487</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>19912</v>
+      </c>
+      <c r="P25" s="1">
+        <f>P27-P34</f>
+        <v>20973</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="1">
+        <v>142003</v>
+      </c>
+      <c r="N26" s="1">
+        <v>139649</v>
+      </c>
+      <c r="O26" s="1">
+        <f>20866+113084</f>
+        <v>133950</v>
+      </c>
+      <c r="P26" s="1">
+        <f>17936+107061</f>
+        <v>124997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="1">
+        <v>34047</v>
+      </c>
+      <c r="N27" s="1">
+        <v>39304</v>
+      </c>
+      <c r="O27" s="1">
+        <v>34703</v>
+      </c>
+      <c r="P27" s="1">
+        <v>35707</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1278</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1170</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1369</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" s="1">
+        <v>184110</v>
+      </c>
+      <c r="N29" s="1">
+        <v>188143</v>
+      </c>
+      <c r="O29" s="1">
+        <v>177853</v>
+      </c>
+      <c r="P29" s="1">
+        <v>172371</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="1">
+        <v>94631</v>
+      </c>
+      <c r="N30" s="1">
+        <v>97599</v>
+      </c>
+      <c r="O30" s="1">
+        <v>104218</v>
+      </c>
+      <c r="P30" s="1">
+        <v>106223</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="1">
+        <v>22623</v>
+      </c>
+      <c r="N31" s="1">
+        <v>22956</v>
+      </c>
+      <c r="O31" s="1">
+        <v>23010</v>
+      </c>
+      <c r="P31" s="1">
+        <v>23949</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="1">
+        <v>347043</v>
+      </c>
+      <c r="N32" s="1">
+        <v>359268</v>
+      </c>
+      <c r="O32" s="1">
+        <v>357096</v>
+      </c>
+      <c r="P32" s="1">
+        <v>335185</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" s="1">
+        <v>4616</v>
+      </c>
+      <c r="N33" s="1">
+        <v>6037</v>
+      </c>
+      <c r="O33" s="1">
+        <v>3436</v>
+      </c>
+      <c r="P33" s="1">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" s="1">
+        <v>14288</v>
+      </c>
+      <c r="N34" s="1">
+        <v>14817</v>
+      </c>
+      <c r="O34" s="1">
+        <v>14791</v>
+      </c>
+      <c r="P34" s="1">
+        <v>14734</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="1">
+        <v>244567</v>
+      </c>
+      <c r="N35" s="1">
+        <v>251635</v>
+      </c>
+      <c r="O35" s="1">
+        <v>254004</v>
+      </c>
+      <c r="P35" s="1">
+        <v>255419</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" s="1">
+        <v>347403</v>
+      </c>
+      <c r="N36" s="1">
+        <v>359268</v>
+      </c>
+      <c r="O36" s="1">
+        <v>357096</v>
+      </c>
+      <c r="P36" s="1">
+        <v>355185</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{1922EE5B-7451-4BC1-9EA5-6A363ACFC038}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>